--- a/medicine/Enfance/Janet_Quin-Harkin/Janet_Quin-Harkin.xlsx
+++ b/medicine/Enfance/Janet_Quin-Harkin/Janet_Quin-Harkin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Janet Quin-Harkin, née le 24 septembre 1941 dans la ville de Bath dans le comté du Somerset, est une romancière britannique. Elle est principalement connue pour ses nombreux romans d'amours et romances. Depuis la fin des années 1990, elle utilise le pseudonyme de Rhys Bowen pour l'écriture de roman policier. Elle est à plusieurs reprises lauréate du prix Agatha.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études au Westfield College de l'université de Londres, elle travaille pour la BBC où elle écrit et supervise la production de fictions. Elle s'installe ensuite en Australie et elle exerce un travail similaire pour la ABC.
 Elle suit ensuite son mari en Californie et, faute de travail dans son ancienne branche d'activité, se tourne vers l'écriture. Elle publie d'abord des livres illustrés pour les enfants, puis, à la demande de son éditeur, se tourne vers l'écriture de romans d'amour pour les jeunes adultes et les adultes.
@@ -547,9 +561,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sous le nom de Janet Quin-Harkin
-Série Sugar and Spice
-Two Girls, One Boy (1987)
+          <t>Sous le nom de Janet Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Sugar and Spice</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Two Girls, One Boy (1987)
 Trading Places (1987)
 The Last Dance (1987)
 Dear Cousin (1987)
@@ -568,27 +590,179 @@
 Roadtrip (1989)
 One Step Too Far (1989)
 Having a Ball (1989)
-It's My Turn (1998)
-Série Heartbreak Cafe
-No Experience Required (1989)
+It's My Turn (1998)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Janet_Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Janet_Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous le nom de Janet Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Heartbreak Cafe</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>No Experience Required (1989)
 The Main Attraction (1989)
 At Your Service No. 3 (1989)
 At Your Service (1990)
 Catch of the Day (1989)
 Love to Go (1990)
-Just Desserts (1990)
-Série Friends
-Starring Tess and Ali (1991)
+Just Desserts (1990)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Janet_Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Janet_Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous le nom de Janet Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Friends</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Starring Tess and Ali (1991)
 Tess and Ali And the Teeny Bikini (1991)
 Boy Trouble for Tess and Ali (1991)
-Tess and Ali, Going On Fifteen (1991)
-Série Senior Year
-Homecoming Dance (1991) Publié en français sous le titre Les Années Lycée, Paris, EJL, 1996
+Tess and Ali, Going On Fifteen (1991)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Janet_Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Janet_Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous le nom de Janet Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Senior Year</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Homecoming Dance (1991) Publié en français sous le titre Les Années Lycée, Paris, EJL, 1996
 New Years Eve (1991)
 Night of the Prom (1992)
-Graduation Day (1992)
-Série The Boyfriend Club (en)
-Ginger's First Kiss (1994)
+Graduation Day (1992)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Janet_Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Janet_Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous le nom de Janet Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série The Boyfriend Club (en)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ginger's First Kiss (1994)
 Roni's Dream Boy (1994)
 Karen's Perfect Match (1994)
 Queen Justine (1994)
@@ -599,25 +773,139 @@
 Roni's Sweet Fifteen (1995)
 Justine's Baby-Sitting Nightmare (1995)
 The Boyfriend Wars (1995)
-Dear Karen (1995)
-Série Tgif!
-Sleepover Madness (1995)
+Dear Karen (1995)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Janet_Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Janet_Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sous le nom de Janet Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Tgif!</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sleepover Madness (1995)
 Friday Night Fright (1995)
 Four's a Crowd (1995)
 Forever Friday (1995)
 Toe-Shoe Trouble (1995)
-Secret Valentine (1996)
-Série Sister, Sister
-Cool in School (1996)
+Secret Valentine (1996)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Janet_Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Janet_Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous le nom de Janet Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Série Sister, Sister</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Cool in School (1996)
 One Crazy Christmas (1996)
 You Read My Mind (1996)
 Homegirl on the Range (1997)
 Star Quality (1997)
 He's All That (1997)
 Summer Daze (1997)
-All Rapped Up (1997)
-Série Sweet Dreams (en)
-The Graduates (1986)
+All Rapped Up (1997)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Janet_Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Janet_Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sous le nom de Janet Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Série Sweet Dreams (en)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>The Graduates (1986)
 Growing Pains (1986)
 California Girl (1983) Publié en français sous le titre La Fille de Californie, Paris, Hachette, coll. Haute tension, 1985, réédition sous le titre La Fille sur le plongeoir, Paris, Bayard, coll. Cœur grenadine, 2000
 Love Match (1982) Publié en français sous le titre Avantage perdu, Paris, Hachette, coll. Haute tension, 1988
@@ -630,9 +918,47 @@
 The Great Boy Chase (1985)
 Follow That Boy (1985)
 My Best Enemy (1987)
-Winter Dreams (1988)
-Autres romans
-Tommy Loves Tina (1984)
+Winter Dreams (1988)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Janet_Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Janet_Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sous le nom de Janet Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Tommy Loves Tina (1984)
 Lovebirds (1984) Publié en français sous le titre Destination Sydney, Paris, Bayard, coll. Cœur grenadine, 2000
 Winner Take All (1984)
 Wanted: Date for Saturday Night (1985)
@@ -653,17 +979,92 @@
 The Apartment (1994)
 The Sutcliffe Diamonds (1994)
 Heartbreak Cafe (1994)
-The King and I (1999)
-Romans illustrés
-Peter Penny's Dance (1976)
+The King and I (1999)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Janet_Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Janet_Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sous le nom de Janet Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Romans illustrés</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Peter Penny's Dance (1976)
 Benjamin's Balloon (1978)
 Septimus Bean and His Amazing Machine (1979)
 Magic Growing Powder (1981)
 Helpful Hattie (1983)
-Billy and Ben: The Terrible Two (1992)
-Sous le pseudonyme de Rhys Bowen
-Série Constable Evan Evans
-Evans Above (1997)
+Billy and Ben: The Terrible Two (1992)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Janet_Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Janet_Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme de Rhys Bowen</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Série Constable Evan Evans</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Evans Above (1997)
 Evan Help Us (1998)
 Evanly Choirs (1999)
 Evan and Elle (2000)
@@ -672,9 +1073,47 @@
 Evan Only Knows (2003)
 Evan's Gate (2004)
 Evan Blessed (2005)
-Evanly Bodies (2006)
-Série Molly Murphy
-Romans
+Evanly Bodies (2006)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Janet_Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Janet_Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme de Rhys Bowen</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Série Molly Murphy</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Romans
 Murphy's Law (2001)
 Death of Riley (2002)
 For the Love of Mike (2003)
@@ -697,9 +1136,47 @@
 Recueils de nouvelles
 The Amersham Rubies (2011)
 The Face in the Mirror (2013)
-Through the Window (2014)
-Série Royal Spyness
-Her Royal Spyness (2007) Publié en français sous le titre Son espionne royale mène l’enquête, Paris, Robert Laffont, coll. La Bête noire, 2019
+Through the Window (2014)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Janet_Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Janet_Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme de Rhys Bowen</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Série Royal Spyness</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Her Royal Spyness (2007) Publié en français sous le titre Son espionne royale mène l’enquête, Paris, Robert Laffont, coll. La Bête noire, 2019
 A Royal Pain (2008) Publié en français sous le titre Son espionne royale et le mystère bavarois, Paris, Robert Laffont, coll. La Bête noire, 2019
 Royal Flush (2009) Publié en français sous le titre Son espionne royale et la partie de chasse, Paris, Robert Laffont, coll. La Bête noire, 2020
 Royal Blood (2010) Publié en français sous le titre Son espionne royale et le prince deTransylvanie, Paris, Robert Laffont, coll. La Bête noire, 2020
@@ -714,72 +1191,149 @@
 Love and Death Among the Cheetahs (2019)
 The Last Mrs. Summers (2020)
 God Rest Ye, Royal Gentlemen (2021)
-Peril in Paris (2022)
-Autres romans
-In Farleigh Field (2017)
+Peril in Paris (2022)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Janet_Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Janet_Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme de Rhys Bowen</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>In Farleigh Field (2017)
 The Tuscan Child (2018)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Janet_Quin-Harkin</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Janet_Quin-Harkin</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Janet_Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Janet_Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Prix et nominations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix
-Prix Agatha 2001 du meilleur roman pour Murphy's Law[1]
-Prix Anthony 2004 de la meilleure nouvelle pour Doppelganger[2]
-Prix Macavity 2009 du meilleur roman historique pour A Royal Pain[3]
-Prix Agatha 2011 du meilleur roman historique pour Naughty in Nice[1]
-Prix Agatha 2017 du meilleur roman historique pour In Farleigh Field[1]
-Prix Macavity 2018 du meilleur roman historique  pour In Farleigh Field[3]
-Prix Agatha 2020 du meilleur roman historique pour The Last Mrs. Summers [1]
-Nominations
-Prix Barry 1999 du meilleur roman pour Evan Help Us[4]
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prix Agatha 2001 du meilleur roman pour Murphy's Law
+Prix Anthony 2004 de la meilleure nouvelle pour Doppelganger
+Prix Macavity 2009 du meilleur roman historique pour A Royal Pain
+Prix Agatha 2011 du meilleur roman historique pour Naughty in Nice
+Prix Agatha 2017 du meilleur roman historique pour In Farleigh Field
+Prix Macavity 2018 du meilleur roman historique  pour In Farleigh Field
+Prix Agatha 2020 du meilleur roman historique pour The Last Mrs. Summers </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Janet_Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Janet_Quin-Harkin</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Prix et nominations</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Prix Barry 1999 du meilleur roman pour Evan Help Us
 Prix Mary Higgings Clark 2002 pour Murphy’s Law
-Prix Macavity 2004 du meilleur roman pour For the Love of Mike[3]
-Prix Edgar-Allan-Poe 2005 du meilleur roman pour Evan’s Gate[5]
-Prix Macavity 2006 du meilleur roman pour In Like Flynn[3]
-Prix Agatha 2007 du meilleur roman pour Her Royal Spyness[1]
-Prix Macavity 2007 du meilleur roman pour Oh Danny Boy[3]
-Prix Agatha 2008 du meilleur roman pour A Royal Pain[1]
-Prix Macavity 2008 du meilleur roman historique pour Her Royal Spyness[3]
-Prix Dilys 2008 pour Her Royal Spyness[6]
-Prix Agatha 2009 du meilleur roman pour Royal Flush[1]
-Prix Agatha 2011 du meilleur roman historique pour Naughty in Nice[1]
-Prix Agatha 2012 du meilleur roman historique pour The Twelve Clues of Christmas[1]
-Prix Macavity 2012 du meilleur roman historique pour Naughty in Nice[3]
-Prix Agatha 2013 du meilleur roman historique pour Heirs and Graces[1]
-Prix Agatha 2014 du meilleur roman historique pour Queen of Hearts[1]
-Prix Agatha 2014 du meilleur roman historique pour Malice at the Palace[1]
-Prix Macavity 2015 du meilleur roman historique pour Queen of Hearts[3]
-Prix Agatha 2018 du meilleur roman historique pour Four Funerals and Maybe a Wedding[1]
-Prix Edgar-Allan-Poe 2018 du meilleur livre de poche pour In Farleigh Field[5]
-Prix Agatha 2019 du meilleur roman historique pour Love and Death Among the Cheetahs[1]
-Prix Macavity 2021 du meilleur roman historique pour The Last Mrs. Summers[3]
-Prix Edgar-Allan-Poe 2022 du meilleur roman pour The Venice Sketchbook[5]
-Prix Sue Feder 2022 du meilleur roman policier historique pour The Venice Sketchbook[3]</t>
+Prix Macavity 2004 du meilleur roman pour For the Love of Mike
+Prix Edgar-Allan-Poe 2005 du meilleur roman pour Evan’s Gate
+Prix Macavity 2006 du meilleur roman pour In Like Flynn
+Prix Agatha 2007 du meilleur roman pour Her Royal Spyness
+Prix Macavity 2007 du meilleur roman pour Oh Danny Boy
+Prix Agatha 2008 du meilleur roman pour A Royal Pain
+Prix Macavity 2008 du meilleur roman historique pour Her Royal Spyness
+Prix Dilys 2008 pour Her Royal Spyness
+Prix Agatha 2009 du meilleur roman pour Royal Flush
+Prix Agatha 2011 du meilleur roman historique pour Naughty in Nice
+Prix Agatha 2012 du meilleur roman historique pour The Twelve Clues of Christmas
+Prix Macavity 2012 du meilleur roman historique pour Naughty in Nice
+Prix Agatha 2013 du meilleur roman historique pour Heirs and Graces
+Prix Agatha 2014 du meilleur roman historique pour Queen of Hearts
+Prix Agatha 2014 du meilleur roman historique pour Malice at the Palace
+Prix Macavity 2015 du meilleur roman historique pour Queen of Hearts
+Prix Agatha 2018 du meilleur roman historique pour Four Funerals and Maybe a Wedding
+Prix Edgar-Allan-Poe 2018 du meilleur livre de poche pour In Farleigh Field
+Prix Agatha 2019 du meilleur roman historique pour Love and Death Among the Cheetahs
+Prix Macavity 2021 du meilleur roman historique pour The Last Mrs. Summers
+Prix Edgar-Allan-Poe 2022 du meilleur roman pour The Venice Sketchbook
+Prix Sue Feder 2022 du meilleur roman policier historique pour The Venice Sketchbook</t>
         </is>
       </c>
     </row>
